--- a/medicine/Sexualité et sexologie/L'Érotisme_vu_par_/L'Érotisme_vu_par_.xlsx
+++ b/medicine/Sexualité et sexologie/L'Érotisme_vu_par_/L'Érotisme_vu_par_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89rotisme_vu_par...</t>
+          <t>L'Érotisme_vu_par...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Érotisme vu par... est une série de six courts métrages pour la plupart réalisés par des écrivains et diffusés le 30 avril 2001 à partir de 22 h 15 sur Canal+. La série est présentée par Jackie Berroyer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89rotisme_vu_par...</t>
+          <t>L'Érotisme_vu_par...</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des courts métrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Emmenez-la de Christine Angot, réalisé par Laetitia Masson, d'après La Peur du lendemain.
 La Rivière de Michel Houellebecq.
